--- a/REGULAR/RE-ENCODE/BISCOCHO, JULIETA.xlsx
+++ b/REGULAR/RE-ENCODE/BISCOCHO, JULIETA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="138">
   <si>
     <t>PERIOD</t>
   </si>
@@ -451,6 +451,12 @@
   </si>
   <si>
     <t>BIRTHDAY 10/6/2023</t>
+  </si>
+  <si>
+    <t>FL(5-0-0)</t>
+  </si>
+  <si>
+    <t>12/06,07,12,13,27/2023</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1494,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A124" activePane="bottomLeft"/>
       <selection activeCell="G7" sqref="G7:J7"/>
-      <selection pane="bottomLeft" activeCell="K141" sqref="K141"/>
+      <selection pane="bottomLeft" activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,7 +1655,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>81.837999999999994</v>
+        <v>80.587999999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1659,7 +1665,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>106.35</v>
+        <v>110.1</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4537,13 +4543,15 @@
       <c r="B141" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C141" s="13"/>
+      <c r="C141" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D141" s="39"/>
       <c r="E141" s="9"/>
       <c r="F141" s="20"/>
-      <c r="G141" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G141" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H141" s="39"/>
       <c r="I141" s="9"/>
@@ -4557,13 +4565,15 @@
         <v>45231</v>
       </c>
       <c r="B142" s="20"/>
-      <c r="C142" s="13"/>
+      <c r="C142" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D142" s="39"/>
       <c r="E142" s="9"/>
       <c r="F142" s="20"/>
-      <c r="G142" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G142" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H142" s="39"/>
       <c r="I142" s="9"/>
@@ -4574,19 +4584,27 @@
       <c r="A143" s="40">
         <v>45261</v>
       </c>
-      <c r="B143" s="20"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="39"/>
+      <c r="B143" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C143" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D143" s="39">
+        <v>5</v>
+      </c>
       <c r="E143" s="9"/>
       <c r="F143" s="20"/>
-      <c r="G143" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G143" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H143" s="39"/>
       <c r="I143" s="9"/>
       <c r="J143" s="11"/>
-      <c r="K143" s="20"/>
+      <c r="K143" s="20" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
